--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -41,7 +41,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>testPBvK@mailinator.com</t>
+    <t>testCNta7012@mailinator.com</t>
   </si>
   <si>
     <t>Password</t>
@@ -53,13 +53,13 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>TestXnpb</t>
+    <t>TestuBlA</t>
   </si>
   <si>
     <t>Lastname</t>
   </si>
   <si>
-    <t>scgi</t>
+    <t>dujj</t>
   </si>
   <si>
     <t>Phone number</t>
@@ -476,7 +476,7 @@
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
+    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -38,10 +39,40 @@
     <t>Writedata2</t>
   </si>
   <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Writedata3</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Writedata4</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>Writedata5</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>testCNta7012@mailinator.com</t>
+    <t>testgLQL9625@mailinator.com</t>
+  </si>
+  <si>
+    <t>testOGja6884@mailinator.com</t>
+  </si>
+  <si>
+    <t>testNlUh9119@mailinator.com</t>
+  </si>
+  <si>
+    <t>testGvUL7184@mailinator.com</t>
+  </si>
+  <si>
+    <t>testSPqr9763@mailinator.com</t>
   </si>
   <si>
     <t>Password</t>
@@ -53,13 +84,37 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>TestuBlA</t>
+    <t>TestmeFF</t>
+  </si>
+  <si>
+    <t>TestQKva</t>
+  </si>
+  <si>
+    <t>TestLXRO</t>
+  </si>
+  <si>
+    <t>TestzyGq</t>
+  </si>
+  <si>
+    <t>TestWvNP</t>
   </si>
   <si>
     <t>Lastname</t>
   </si>
   <si>
-    <t>dujj</t>
+    <t>automationdxfa</t>
+  </si>
+  <si>
+    <t>automationvvab</t>
+  </si>
+  <si>
+    <t>automationxdkv</t>
+  </si>
+  <si>
+    <t>automationbfxp</t>
+  </si>
+  <si>
+    <t>automationnaeo</t>
   </si>
   <si>
     <t>Phone number</t>
@@ -77,7 +132,7 @@
     <t>Referrals</t>
   </si>
   <si>
-    <t>humanresources_text</t>
+    <t>Human Resources</t>
   </si>
   <si>
     <t>DOB</t>
@@ -90,6 +145,102 @@
   </si>
   <si>
     <t>employee</t>
+  </si>
+  <si>
+    <t>WelcomeOnboarding</t>
+  </si>
+  <si>
+    <t>Welcome to Carepath Onboarding!</t>
+  </si>
+  <si>
+    <t>AccessApprovedText</t>
+  </si>
+  <si>
+    <t>Your request to access the  Mental Health  program is approved.</t>
+  </si>
+  <si>
+    <t>CheckListText</t>
+  </si>
+  <si>
+    <t>We collect personal information only for medical purposes required to determine your well-being. Based on that, our clinicians can provide you with faster and better support.,Checklist,Onboarding,Section 1 Personal information,Contact Information,Emergency contact and information,Address Information,Health Card Information,Employment Information,Section 2 Consent form,Terms of Use,Consent Form,Section 3 Health assessment,PHQ-9,GAD-7,Finishing profile,Finishing profile,Required Information</t>
+  </si>
+  <si>
+    <t>HomePhoneNumber</t>
+  </si>
+  <si>
+    <t>CellNumber</t>
+  </si>
+  <si>
+    <t>HomeNumberText</t>
+  </si>
+  <si>
+    <t>CellNumberText</t>
+  </si>
+  <si>
+    <t>Home Phone Number</t>
+  </si>
+  <si>
+    <t>Cell Phone Number</t>
+  </si>
+  <si>
+    <t>NextButtonText</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>FirstNameText</t>
+  </si>
+  <si>
+    <t>LastNameText</t>
+  </si>
+  <si>
+    <t>CellPhoneText</t>
+  </si>
+  <si>
+    <t>RelationText</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>RelationCellNumber</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Postal</t>
   </si>
 </sst>
 </file>
@@ -98,26 +249,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -129,13 +280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,12 +331,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,153 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -657,4 +679,701 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
-    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -60,19 +61,19 @@
     <t>Email</t>
   </si>
   <si>
-    <t>testgLQL9625@mailinator.com</t>
-  </si>
-  <si>
-    <t>testOGja6884@mailinator.com</t>
-  </si>
-  <si>
-    <t>testNlUh9119@mailinator.com</t>
-  </si>
-  <si>
-    <t>testGvUL7184@mailinator.com</t>
-  </si>
-  <si>
-    <t>testSPqr9763@mailinator.com</t>
+    <t>prabhanNCC1750@mailinator.com</t>
+  </si>
+  <si>
+    <t>testJDMb6931@mailinator.com</t>
+  </si>
+  <si>
+    <t>testEZWy1144@mailinator.com</t>
+  </si>
+  <si>
+    <t>testAPsP1244@mailinator.com</t>
+  </si>
+  <si>
+    <t>testxVTj3261@mailinator.com</t>
   </si>
   <si>
     <t>Password</t>
@@ -84,37 +85,37 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>TestmeFF</t>
-  </si>
-  <si>
-    <t>TestQKva</t>
-  </si>
-  <si>
-    <t>TestLXRO</t>
-  </si>
-  <si>
-    <t>TestzyGq</t>
-  </si>
-  <si>
-    <t>TestWvNP</t>
+    <t>Prabharleu</t>
+  </si>
+  <si>
+    <t>TesttRzs</t>
+  </si>
+  <si>
+    <t>TestqRoa</t>
+  </si>
+  <si>
+    <t>TestkJLE</t>
+  </si>
+  <si>
+    <t>TestzgCm</t>
   </si>
   <si>
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationdxfa</t>
-  </si>
-  <si>
-    <t>automationvvab</t>
-  </si>
-  <si>
-    <t>automationxdkv</t>
-  </si>
-  <si>
-    <t>automationbfxp</t>
-  </si>
-  <si>
-    <t>automationnaeo</t>
+    <t>automationbhsy</t>
+  </si>
+  <si>
+    <t>automationdznh</t>
+  </si>
+  <si>
+    <t>automationdgge</t>
+  </si>
+  <si>
+    <t>automationvguw</t>
+  </si>
+  <si>
+    <t>automationmuqj</t>
   </si>
   <si>
     <t>Phone number</t>
@@ -174,12 +175,12 @@
     <t>HomeNumberText</t>
   </si>
   <si>
+    <t>Home Phone Number</t>
+  </si>
+  <si>
     <t>CellNumberText</t>
   </si>
   <si>
-    <t>Home Phone Number</t>
-  </si>
-  <si>
     <t>Cell Phone Number</t>
   </si>
   <si>
@@ -189,58 +190,215 @@
     <t>NEXT</t>
   </si>
   <si>
+    <t>FirstNameText</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
+    <t>LastNameText</t>
+  </si>
+  <si>
     <t>Last Name</t>
   </si>
   <si>
+    <t>RelationText</t>
+  </si>
+  <si>
+    <t>CellPhoneText</t>
+  </si>
+  <si>
     <t>Cell Phone</t>
   </si>
   <si>
-    <t>FirstNameText</t>
-  </si>
-  <si>
-    <t>LastNameText</t>
-  </si>
-  <si>
-    <t>CellPhoneText</t>
-  </si>
-  <si>
-    <t>RelationText</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>LastName</t>
   </si>
   <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
     <t>RelationCellNumber</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
+    <t>66, East Avenue</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
+    <t>Central</t>
+  </si>
+  <si>
     <t>Province</t>
   </si>
   <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
     <t>Postal</t>
+  </si>
+  <si>
+    <t>A1A 1A1</t>
+  </si>
+  <si>
+    <t>AddressText</t>
+  </si>
+  <si>
+    <t>UnitText</t>
+  </si>
+  <si>
+    <t>Unit #</t>
+  </si>
+  <si>
+    <t>CityText</t>
+  </si>
+  <si>
+    <t>ProvinceText</t>
+  </si>
+  <si>
+    <t>PostalText</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>HealthCard</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>TermsAndConditionsText</t>
+  </si>
+  <si>
+    <t>I read and accept Terms and Conditions</t>
+  </si>
+  <si>
+    <t>ProvideMyConsentText</t>
+  </si>
+  <si>
+    <t>I provide my Consent</t>
+  </si>
+  <si>
+    <t>ContinueButton</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <t>MentalHealthTextInAdobe</t>
+  </si>
+  <si>
+    <t>Mental Health Navigation Program Consent for Service</t>
+  </si>
+  <si>
+    <t>nameFieldInAdobe</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>AssessmentOverview</t>
+  </si>
+  <si>
+    <t>Before proceeding with the Mental Health program, we kindly ask you to fill this assessment. Brief questionnaires such as the Patient Health Questionnaire (PHQ-9) or General Anxiety Disorder Scale (GAD7) help us to understand if you are experiencing depression or anxiety. They can also serve as a symptom severity tracker to help assess the effectiveness of your work with the app and your counsellor, if you choose to connect with one.</t>
+  </si>
+  <si>
+    <t>StartAssessmentButtonText</t>
+  </si>
+  <si>
+    <t>START ASSESSMENT</t>
+  </si>
+  <si>
+    <t>HaveYouBotheredText</t>
+  </si>
+  <si>
+    <t>Over the last two weeks how often have you been bothered by following problem?</t>
+  </si>
+  <si>
+    <t>SaveGAD7Text</t>
+  </si>
+  <si>
+    <t>SAVE GAD-7</t>
+  </si>
+  <si>
+    <t>PreferredTimeText</t>
+  </si>
+  <si>
+    <t>Please identify preferred time for a clinician to contact you</t>
+  </si>
+  <si>
+    <t>ThankYouText</t>
+  </si>
+  <si>
+    <t>Thank you for finishing our onboarding process! You can now check out our app more closely.</t>
+  </si>
+  <si>
+    <t>SkipAndGoHome</t>
+  </si>
+  <si>
+    <t>SKIP AND GO HOME</t>
+  </si>
+  <si>
+    <t>LessonOne</t>
+  </si>
+  <si>
+    <t>Lesson 1: Anxiety, Depression &amp; Emotions</t>
+  </si>
+  <si>
+    <t>Start now</t>
+  </si>
+  <si>
+    <t>START NOW</t>
+  </si>
+  <si>
+    <t>Mind zone</t>
+  </si>
+  <si>
+    <t>Mind Zone</t>
+  </si>
+  <si>
+    <t>LessonTwo</t>
+  </si>
+  <si>
+    <t>Lesson 2: Behavioural Strategies for Anxiety and Low Mood</t>
+  </si>
+  <si>
+    <t>LessonThree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson 3: Managing Unpleasant Feelings
+</t>
+  </si>
+  <si>
+    <t>Lesson Six</t>
+  </si>
+  <si>
+    <t>Lesson 6: Challenging Thoughts</t>
+  </si>
+  <si>
+    <t>Lesson Seven</t>
+  </si>
+  <si>
+    <t>Lesson 7: Relationships</t>
   </si>
 </sst>
 </file>
@@ -249,26 +407,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,13 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,17 +495,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,13 +778,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -681,305 +1120,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
@@ -991,7 +1143,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -1043,7 +1195,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
@@ -1060,7 +1212,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
@@ -1081,7 +1233,7 @@
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7"/>
@@ -1098,7 +1250,7 @@
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="7"/>
@@ -1112,11 +1264,11 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1129,10 +1281,10 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
@@ -1146,10 +1298,10 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="2"/>
@@ -1163,11 +1315,11 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1180,11 +1332,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>61</v>
+      <c r="A11" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1197,8 +1349,8 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>63</v>
+      <c r="A12" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
@@ -1214,11 +1366,11 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1231,11 +1383,11 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>67</v>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1248,11 +1400,11 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>68</v>
+      <c r="A15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1265,11 +1417,11 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>69</v>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1282,10 +1434,10 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2"/>
@@ -1299,10 +1451,12 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1314,10 +1468,12 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="2"/>
+      <c r="A19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1329,10 +1485,12 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1344,10 +1502,12 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="2"/>
+      <c r="A21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1359,10 +1519,12 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="2"/>
+      <c r="A22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1373,6 +1535,445 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
@@ -61,7 +61,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>prabhanNCC1750@mailinator.com</t>
+    <t>prabhasXxj3598@mailinator.com</t>
   </si>
   <si>
     <t>testJDMb6931@mailinator.com</t>
@@ -85,7 +85,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>Prabharleu</t>
+    <t>PrabhaDlfl</t>
   </si>
   <si>
     <t>TesttRzs</t>
@@ -103,7 +103,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationbhsy</t>
+    <t>automationbizn</t>
   </si>
   <si>
     <t>automationdznh</t>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
+    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
+    <sheet name="Mindzone" sheetId="3" r:id="rId3"/>
+    <sheet name="Mygoal" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -90,37 +92,146 @@
   </si>
   <si>
     <t>employee</t>
+  </si>
+  <si>
+    <t>LessonOne</t>
+  </si>
+  <si>
+    <t>Lesson 1: Anxiety, Depression &amp; Emotions</t>
+  </si>
+  <si>
+    <t>Start now</t>
+  </si>
+  <si>
+    <t>START NOW</t>
+  </si>
+  <si>
+    <t>Mind Zone</t>
+  </si>
+  <si>
+    <t>Mind zone</t>
+  </si>
+  <si>
+    <t>LessonTwo</t>
+  </si>
+  <si>
+    <t>Lesson 2: Behavioural Strategies for Anxiety and Low Mood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson 3: Managing Unpleasant Feelings
+</t>
+  </si>
+  <si>
+    <t>LessonThree</t>
+  </si>
+  <si>
+    <t>Lesson Six</t>
+  </si>
+  <si>
+    <t>Lesson Seven</t>
+  </si>
+  <si>
+    <t>Lesson 6: Challenging Thoughts</t>
+  </si>
+  <si>
+    <t>Lesson 7: Relationships</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>28-01-2025</t>
+  </si>
+  <si>
+    <t>04-02-2025</t>
+  </si>
+  <si>
+    <t>whatfield</t>
+  </si>
+  <si>
+    <t>whenfield</t>
+  </si>
+  <si>
+    <t>Wherefield</t>
+  </si>
+  <si>
+    <t>testingthevalue</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>withval</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>What might prevent me</t>
+  </si>
+  <si>
+    <t>How can I solve those barriers to my goal</t>
+  </si>
+  <si>
+    <t>barriers</t>
+  </si>
+  <si>
+    <t>Success!</t>
+  </si>
+  <si>
+    <t>popup</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,18 +240,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,11 +280,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF0F0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +311,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,153 +601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -657,4 +652,413 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
@@ -17,12 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
   <si>
     <t>TestcaseName</t>
   </si>
   <si>
-    <t>Dataset</t>
+    <t>DatasetValue</t>
+  </si>
+  <si>
+    <t>TC-001-Sign Up</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Field</t>
@@ -58,64 +64,91 @@
     <t>Writedata5</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>EmployeeText</t>
+  </si>
+  <si>
+    <t>I AM AN EMPLOYEE</t>
+  </si>
+  <si>
+    <t>StudentText</t>
+  </si>
+  <si>
+    <t>I AM A STUDENT</t>
+  </si>
+  <si>
+    <t>ReferralText</t>
+  </si>
+  <si>
+    <t>Referral Source</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>prabhasXxj3598@mailinator.com</t>
-  </si>
-  <si>
-    <t>testJDMb6931@mailinator.com</t>
-  </si>
-  <si>
-    <t>testEZWy1144@mailinator.com</t>
-  </si>
-  <si>
-    <t>testAPsP1244@mailinator.com</t>
-  </si>
-  <si>
-    <t>testxVTj3261@mailinator.com</t>
+    <t>prabhaLEcE9423@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaBLdw8931@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhayihC8947@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhanSzr9921@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaQAlY2128@mailinator.com</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Test@123</t>
+    <t>Prabha@123</t>
   </si>
   <si>
     <t>Firstname</t>
   </si>
   <si>
-    <t>PrabhaDlfl</t>
-  </si>
-  <si>
-    <t>TesttRzs</t>
-  </si>
-  <si>
-    <t>TestqRoa</t>
-  </si>
-  <si>
-    <t>TestkJLE</t>
-  </si>
-  <si>
-    <t>TestzgCm</t>
+    <t>PrabhaAdMA</t>
+  </si>
+  <si>
+    <t>PrabhaEtUC</t>
+  </si>
+  <si>
+    <t>PrabhafZyL</t>
+  </si>
+  <si>
+    <t>PrabhaGXvr</t>
+  </si>
+  <si>
+    <t>PrabhaykYm</t>
   </si>
   <si>
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationbizn</t>
-  </si>
-  <si>
-    <t>automationdznh</t>
-  </si>
-  <si>
-    <t>automationdgge</t>
-  </si>
-  <si>
-    <t>automationvguw</t>
-  </si>
-  <si>
-    <t>automationmuqj</t>
+    <t>automationpjlm</t>
+  </si>
+  <si>
+    <t>automationkkns</t>
+  </si>
+  <si>
+    <t>automationbunn</t>
+  </si>
+  <si>
+    <t>automationsjea</t>
+  </si>
+  <si>
+    <t>automationwnen</t>
   </si>
   <si>
     <t>Phone number</t>
@@ -142,10 +175,34 @@
     <t>29032000</t>
   </si>
   <si>
+    <t>dobText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
+  </si>
+  <si>
     <t>Relation</t>
   </si>
   <si>
     <t>employee</t>
+  </si>
+  <si>
+    <t>StudentId</t>
+  </si>
+  <si>
+    <t>1276898</t>
+  </si>
+  <si>
+    <t>CourseEnrolled</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
   </si>
   <si>
     <t>WelcomeOnboarding</t>
@@ -449,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -472,17 +529,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -778,288 +850,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -1067,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -1088,32 +1393,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,130 +1430,130 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>52</v>
+      <c r="A7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1281,11 +1566,11 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
+      <c r="A8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1298,11 +1583,11 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
+      <c r="A9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1315,11 +1600,11 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
+      <c r="A10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1332,11 +1617,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>59</v>
+      <c r="A11" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1349,11 +1634,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>61</v>
+      <c r="A12" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1366,11 +1651,11 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
+      <c r="A13" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1383,11 +1668,11 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>64</v>
+      <c r="A14" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1400,11 +1685,11 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>66</v>
+      <c r="A15" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1417,11 +1702,11 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>41</v>
+      <c r="A16" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1434,11 +1719,11 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>69</v>
+      <c r="A17" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1451,11 +1736,11 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>70</v>
+      <c r="A18" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1468,11 +1753,11 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>72</v>
+      <c r="A19" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1485,11 +1770,11 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>74</v>
+      <c r="A20" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1502,11 +1787,11 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>76</v>
+      <c r="A21" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1519,11 +1804,11 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>78</v>
+      <c r="A22" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1536,11 +1821,11 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>80</v>
+      <c r="A23" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1553,11 +1838,11 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>81</v>
+      <c r="A24" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1570,11 +1855,11 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>83</v>
+      <c r="A25" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1587,11 +1872,11 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>84</v>
+      <c r="A26" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1604,11 +1889,11 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>85</v>
+      <c r="A27" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1621,11 +1906,11 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>87</v>
+      <c r="A28" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1638,11 +1923,11 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>89</v>
+      <c r="A29" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1655,11 +1940,11 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>91</v>
+      <c r="A30" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1672,11 +1957,11 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>93</v>
+      <c r="A31" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1689,11 +1974,11 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>95</v>
+      <c r="A32" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1706,11 +1991,11 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>97</v>
+      <c r="A33" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1723,11 +2008,11 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>98</v>
+      <c r="A34" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1740,11 +2025,11 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>100</v>
+      <c r="A35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1757,11 +2042,11 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>101</v>
+      <c r="A36" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1774,11 +2059,11 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>103</v>
+      <c r="A37" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1791,11 +2076,11 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>105</v>
+      <c r="A38" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1808,11 +2093,11 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>107</v>
+      <c r="A39" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1825,11 +2110,11 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>110</v>
+      <c r="A40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1842,11 +2127,11 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>111</v>
+      <c r="A41" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1882,97 +2167,97 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -94,7 +94,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>prabhaLEcE9423@mailinator.com</t>
+    <t>prabhaOUUZ7517@mailinator.com</t>
   </si>
   <si>
     <t>prabhaBLdw8931@mailinator.com</t>
@@ -118,7 +118,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>PrabhaAdMA</t>
+    <t>PrabhahTDZ</t>
   </si>
   <si>
     <t>PrabhaEtUC</t>
@@ -136,7 +136,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationpjlm</t>
+    <t>automationunqn</t>
   </si>
   <si>
     <t>automationkkns</t>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="2" r:id="rId1"/>
     <sheet name="TC_01" sheetId="1" r:id="rId2"/>
     <sheet name="Mindzone" sheetId="3" r:id="rId3"/>
     <sheet name="Mygoal" sheetId="4" r:id="rId4"/>
+    <sheet name="Cancer" sheetId="6" r:id="rId5"/>
+    <sheet name="ElderCare" sheetId="7" r:id="rId6"/>
+    <sheet name="ReAssessmentSheet" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -195,6 +198,96 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Social History</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Allergytype</t>
+  </si>
+  <si>
+    <t>ComorbiditiesandImpactoncancertreatment</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>PhysicalassessmentandMobility</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Describe Ability</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>weightbearing</t>
+  </si>
+  <si>
+    <t>weight bearing</t>
+  </si>
+  <si>
+    <t>Health History</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>SleepandRest</t>
+  </si>
+  <si>
+    <t>Sleep and rest</t>
+  </si>
+  <si>
+    <t>SleepandRest Second Field</t>
+  </si>
+  <si>
+    <t>second filed</t>
+  </si>
+  <si>
+    <t>MedicationName</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Emotional</t>
+  </si>
+  <si>
+    <t>Physical Comments</t>
+  </si>
+  <si>
+    <t>Spiritual Comments</t>
+  </si>
+  <si>
+    <t>Informational Comments</t>
+  </si>
+  <si>
+    <t>Practical Comments</t>
+  </si>
+  <si>
+    <t>PracticalComments</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Financial Comments</t>
+  </si>
+  <si>
+    <t>prabhafeb10@mailinator.com</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -798,7 +891,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,4 +1154,322 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
+    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
+    <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -94,13 +94,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>prabhaOUUZ7517@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaBLdw8931@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhayihC8947@mailinator.com</t>
+    <t>prabhanbFi6629@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaFRLS7552@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhazKUG2347@mailinator.com</t>
   </si>
   <si>
     <t>prabhanSzr9921@mailinator.com</t>
@@ -118,13 +118,13 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>PrabhahTDZ</t>
-  </si>
-  <si>
-    <t>PrabhaEtUC</t>
-  </si>
-  <si>
-    <t>PrabhafZyL</t>
+    <t>PrabhaRZKK</t>
+  </si>
+  <si>
+    <t>PrabhawzbV</t>
+  </si>
+  <si>
+    <t>PrabhasSfF</t>
   </si>
   <si>
     <t>PrabhaGXvr</t>
@@ -136,13 +136,13 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationunqn</t>
-  </si>
-  <si>
-    <t>automationkkns</t>
-  </si>
-  <si>
-    <t>automationbunn</t>
+    <t>automationtbnm</t>
+  </si>
+  <si>
+    <t>automationrhlr</t>
+  </si>
+  <si>
+    <t>automationpsfx</t>
   </si>
   <si>
     <t>automationsjea</t>
@@ -464,26 +464,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +850,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -871,7 +906,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,7 +941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -932,7 +967,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -957,7 +992,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1017,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1042,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1092,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1167,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1192,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1182,7 +1217,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1242,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1267,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1292,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1307,7 +1342,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1366,42 +1401,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -1409,11 +1409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -1428,7 +1428,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>128</v>
       </c>
@@ -2152,11 +2152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2165,7 +2165,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>142</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>144</v>
       </c>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -94,7 +94,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>prabhaOUUZ7517@mailinator.com</t>
+    <t>prabhaKZLF5806@mailinator.com</t>
   </si>
   <si>
     <t>prabhaBLdw8931@mailinator.com</t>
@@ -118,7 +118,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>PrabhahTDZ</t>
+    <t>PrabharYdp</t>
   </si>
   <si>
     <t>PrabhaEtUC</t>
@@ -136,7 +136,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationunqn</t>
+    <t>automationaxnx</t>
   </si>
   <si>
     <t>automationkkns</t>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
-    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
-    <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
+    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -94,7 +94,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>prabhanbFi6629@mailinator.com</t>
+    <t>prabhaebcf3891@mailinator.com</t>
   </si>
   <si>
     <t>prabhaFRLS7552@mailinator.com</t>
@@ -118,7 +118,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>PrabhaRZKK</t>
+    <t>PrabhaiUYM</t>
   </si>
   <si>
     <t>PrabhawzbV</t>
@@ -136,7 +136,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationtbnm</t>
+    <t>automationwnwd</t>
   </si>
   <si>
     <t>automationrhlr</t>
@@ -464,26 +464,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,48 +850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -906,7 +871,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -967,7 +932,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -992,7 +957,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +982,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1042,7 +1007,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1067,7 +1032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1057,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1117,7 +1082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1142,7 +1107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1167,7 +1132,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1192,7 +1157,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1217,7 +1182,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1242,7 +1207,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1267,7 +1232,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1292,7 +1257,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1317,7 +1282,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1342,7 +1307,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1401,7 +1366,42 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1409,11 +1409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -1428,7 +1428,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>128</v>
       </c>
@@ -2152,11 +2152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2165,7 +2165,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>142</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>144</v>
       </c>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
+    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
+    <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
+    <sheet name="Reassessment" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="162">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -94,7 +95,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>prabhaOUUZ7517@mailinator.com</t>
+    <t>prabhaArXH2112@mailinator.com</t>
   </si>
   <si>
     <t>prabhaBLdw8931@mailinator.com</t>
@@ -118,7 +119,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>PrabhahTDZ</t>
+    <t>PrabhaGCav</t>
   </si>
   <si>
     <t>PrabhaEtUC</t>
@@ -136,7 +137,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationunqn</t>
+    <t>automationmumv</t>
   </si>
   <si>
     <t>automationkkns</t>
@@ -202,6 +203,9 @@
     <t>Program</t>
   </si>
   <si>
+    <t>Chronic Disease</t>
+  </si>
+  <si>
     <t>Mental Health</t>
   </si>
   <si>
@@ -413,6 +417,45 @@
   </si>
   <si>
     <t>SKIP AND GO HOME</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Tiredness</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Drowsiness</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Appetite</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Shortness</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Wellbeing</t>
   </si>
   <si>
     <t>LessonOne</t>
@@ -456,34 +499,48 @@
   </si>
   <si>
     <t>Lesson 7: Relationships</t>
+  </si>
+  <si>
+    <t>prabhacJlH8081@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhafeb02@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,13 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,10 +600,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,8 +628,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -850,17 +910,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
@@ -871,7 +966,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,7 +1001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -932,7 +1027,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -957,7 +1052,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1077,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,32 +1102,34 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1154,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1229,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1254,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1182,7 +1279,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1304,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1329,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1354,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1282,7 +1379,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1307,7 +1404,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1324,11 +1421,11 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1365,55 +1462,23 @@
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -1428,7 +1493,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,12 +1528,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1480,12 +1545,12 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1497,12 +1562,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1516,7 +1581,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>45</v>
@@ -1533,7 +1598,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>45</v>
@@ -1550,10 +1615,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1567,10 +1632,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1584,10 +1649,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1601,10 +1666,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1618,10 +1683,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1635,7 +1700,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
@@ -1652,10 +1717,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1669,10 +1734,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1686,10 +1751,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1706,7 +1771,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1720,7 +1785,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -1737,10 +1802,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1754,10 +1819,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1771,10 +1836,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1788,10 +1853,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1805,10 +1870,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1822,10 +1887,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1839,10 +1904,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1856,10 +1921,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1873,10 +1938,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1890,10 +1955,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1907,10 +1972,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1924,10 +1989,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1941,10 +2006,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1958,10 +2023,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1975,10 +2040,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1992,10 +2057,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2009,10 +2074,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2024,12 +2089,12 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2043,10 +2108,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2060,10 +2125,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2077,10 +2142,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2094,10 +2159,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2109,12 +2174,12 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2128,10 +2193,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2143,8 +2208,162 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -2152,11 +2371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2165,7 +2384,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,78 +2401,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2262,4 +2481,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
-    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
-    <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
-    <sheet name="Reassessment" sheetId="5" r:id="rId5"/>
+    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Reassessment" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="MyProfile" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="208">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -95,7 +96,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>prabhaArXH2112@mailinator.com</t>
+    <t>prabhatEWd3341@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaOnYn6688@mailinator.com</t>
   </si>
   <si>
     <t>prabhaBLdw8931@mailinator.com</t>
@@ -119,7 +123,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>PrabhaGCav</t>
+    <t>PrabhagzHb</t>
   </si>
   <si>
     <t>PrabhaEtUC</t>
@@ -137,7 +141,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>automationmumv</t>
+    <t>automationkxwt</t>
   </si>
   <si>
     <t>automationkkns</t>
@@ -501,10 +505,146 @@
     <t>Lesson 7: Relationships</t>
   </si>
   <si>
-    <t>prabhacJlH8081@mailinator.com</t>
-  </si>
-  <si>
     <t>prabhafeb02@mailinator.com</t>
+  </si>
+  <si>
+    <t>GAD71</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>GAD72</t>
+  </si>
+  <si>
+    <t>GAD73</t>
+  </si>
+  <si>
+    <t>GAD74</t>
+  </si>
+  <si>
+    <t>GAD75</t>
+  </si>
+  <si>
+    <t>GAD76</t>
+  </si>
+  <si>
+    <t>GAD77</t>
+  </si>
+  <si>
+    <t>not difficult at all_text</t>
+  </si>
+  <si>
+    <t>EmailField</t>
+  </si>
+  <si>
+    <t>prabhatewd3341@mailinator.com</t>
+  </si>
+  <si>
+    <t>Emotional Comments</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>spiritualinput</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Informational Comments</t>
+  </si>
+  <si>
+    <t>demova</t>
+  </si>
+  <si>
+    <t>Practical Comments</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>socialpage</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>prabha</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>250-555-1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency </t>
+  </si>
+  <si>
+    <t>Emergency last name</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Unitoption</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Mental Health Email</t>
+  </si>
+  <si>
+    <t>Mental Health con</t>
+  </si>
+  <si>
+    <t>Chronic Email</t>
+  </si>
+  <si>
+    <t>prabhajan701@mailinator.com</t>
+  </si>
+  <si>
+    <t>Cell Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle of Care Mobile
+</t>
+  </si>
+  <si>
+    <t>Circle of Care fax Number</t>
+  </si>
+  <si>
+    <t>12505551234</t>
+  </si>
+  <si>
+    <t>Circle of Care first name</t>
+  </si>
+  <si>
+    <t>Circle of Care last name</t>
   </si>
 </sst>
 </file>
@@ -513,37 +653,35 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,18 +690,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -599,10 +743,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF0F0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -628,10 +780,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,48 +1063,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
@@ -966,7 +1084,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1145,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1170,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1195,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1102,330 +1220,330 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>160</v>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1462,11 +1580,43 @@
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1474,11 +1624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -1493,7 +1643,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1528,12 +1678,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1545,12 +1695,12 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1562,12 +1712,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1581,10 +1731,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1598,10 +1748,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1615,10 +1765,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1632,10 +1782,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1649,10 +1799,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1666,10 +1816,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1683,10 +1833,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1700,10 +1850,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1717,10 +1867,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1734,10 +1884,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1751,10 +1901,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1768,10 +1918,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1785,10 +1935,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1802,10 +1952,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1819,10 +1969,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1836,10 +1986,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1853,10 +2003,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1870,10 +2020,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1887,10 +2037,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1904,10 +2054,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1921,10 +2071,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1938,10 +2088,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1955,10 +2105,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1972,10 +2122,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1989,10 +2139,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2006,10 +2156,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2023,10 +2173,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2040,10 +2190,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2057,10 +2207,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2074,10 +2224,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2089,12 +2239,12 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2108,10 +2258,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2125,10 +2275,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2142,10 +2292,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2159,10 +2309,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2174,12 +2324,12 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2193,10 +2343,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2210,10 +2360,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2227,10 +2377,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2244,10 +2394,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2261,10 +2411,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2278,10 +2428,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2295,10 +2445,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2312,10 +2462,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2329,10 +2479,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2346,10 +2496,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2363,7 +2513,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -2371,11 +2521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2384,7 +2534,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2401,78 +2551,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2485,13 +2635,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
@@ -2500,7 +2650,7 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2517,30 +2667,646 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
+    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
+    <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
+    <sheet name="ForgotPassword" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -456,6 +457,90 @@
   </si>
   <si>
     <t>Lesson 7: Relationships</t>
+  </si>
+  <si>
+    <t>Valied Mail</t>
+  </si>
+  <si>
+    <t>prabhaOnYn6688@mailinator.com</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Old Password</t>
+  </si>
+  <si>
+    <t>Prabha@12345</t>
+  </si>
+  <si>
+    <t>76543324</t>
+  </si>
+  <si>
+    <t>Special Characters</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Capital letters</t>
+  </si>
+  <si>
+    <t>Small Lettes</t>
+  </si>
+  <si>
+    <t>RVMBJSKI</t>
+  </si>
+  <si>
+    <t>jrspdert</t>
+  </si>
+  <si>
+    <t>One Letter</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Prabha@er</t>
+  </si>
+  <si>
+    <t>prabha@1r</t>
+  </si>
+  <si>
+    <t>TEST@12DS</t>
+  </si>
+  <si>
+    <t>DEMOtv12</t>
+  </si>
+  <si>
+    <t>With Out Number</t>
+  </si>
+  <si>
+    <t>With Out Captital Letter</t>
+  </si>
+  <si>
+    <t>With Out Smal lLetter</t>
+  </si>
+  <si>
+    <t>With Out Special Char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t>Empty Space</t>
+  </si>
+  <si>
+    <t>Otp</t>
+  </si>
+  <si>
+    <t>567854</t>
+  </si>
+  <si>
+    <t>NumbersOnly</t>
+  </si>
+  <si>
+    <t>Numbers</t>
   </si>
 </sst>
 </file>
@@ -464,26 +549,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,13 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +655,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,13 +937,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -871,7 +993,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,7 +1028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -932,7 +1054,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -957,7 +1079,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1104,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1129,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1179,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1254,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1279,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1182,7 +1304,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1329,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1354,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1379,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1282,7 +1404,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1307,7 +1429,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1366,42 +1488,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -1409,11 +1496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -1428,7 +1515,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1567,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1584,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -2024,7 +2111,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
@@ -2109,7 +2196,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>128</v>
       </c>
@@ -2152,11 +2239,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2165,7 +2252,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -2193,7 +2280,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
@@ -2204,7 +2291,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2302,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -2226,7 +2313,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -2237,7 +2324,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>142</v>
       </c>
@@ -2248,7 +2335,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>144</v>
       </c>
@@ -2262,4 +2349,176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t>Numbers</t>
+  </si>
+  <si>
+    <t>My profile</t>
+  </si>
+  <si>
+    <t>prabhacjlh8081@mailinator.com</t>
+  </si>
+  <si>
+    <t>OldPasswordForTesting</t>
   </si>
 </sst>
 </file>
@@ -974,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,6 +2521,24 @@
       </c>
       <c r="C16" s="4"/>
     </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
+    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
+    <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -464,26 +464,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +850,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -871,7 +906,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,7 +941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -932,7 +967,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -957,7 +992,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1017,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1042,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1092,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1167,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1192,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1182,7 +1217,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1242,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1267,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1292,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1307,7 +1342,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1366,42 +1401,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -1409,11 +1409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -1428,7 +1428,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>128</v>
       </c>
@@ -2152,11 +2152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2165,7 +2165,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>142</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>144</v>
       </c>

--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="2" r:id="rId1"/>
     <sheet name="TC_01" sheetId="1" r:id="rId2"/>
     <sheet name="TC_02" sheetId="3" r:id="rId3"/>
     <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
+    <sheet name="MentalHealth" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -456,6 +457,12 @@
   </si>
   <si>
     <t>Lesson 7: Relationships</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>prabhatewd3341@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -887,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2262,4 +2269,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TC_02" sheetId="3" r:id="rId3"/>
     <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
     <sheet name="ForgotPassword" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -550,6 +551,9 @@
   </si>
   <si>
     <t>OldPasswordForTesting</t>
+  </si>
+  <si>
+    <t>Valid Mail</t>
   </si>
 </sst>
 </file>
@@ -983,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2364,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,4 +2552,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataFiles/Testdata.xlsx
+++ b/dataFiles/Testdata.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DataSet" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="TC_01" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="TC_02" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Mindzone" state="visible" r:id="rId7"/>
+    <sheet name="DataSet" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_02" sheetId="3" r:id="rId3"/>
+    <sheet name="Mindzone" sheetId="4" r:id="rId4"/>
+    <sheet name="ForgotPassword" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -456,6 +458,102 @@
   </si>
   <si>
     <t>Lesson 7: Relationships</t>
+  </si>
+  <si>
+    <t>Valied Mail</t>
+  </si>
+  <si>
+    <t>prabhaOnYn6688@mailinator.com</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Old Password</t>
+  </si>
+  <si>
+    <t>Prabha@12345</t>
+  </si>
+  <si>
+    <t>76543324</t>
+  </si>
+  <si>
+    <t>Special Characters</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Capital letters</t>
+  </si>
+  <si>
+    <t>Small Lettes</t>
+  </si>
+  <si>
+    <t>RVMBJSKI</t>
+  </si>
+  <si>
+    <t>jrspdert</t>
+  </si>
+  <si>
+    <t>One Letter</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Prabha@er</t>
+  </si>
+  <si>
+    <t>prabha@1r</t>
+  </si>
+  <si>
+    <t>TEST@12DS</t>
+  </si>
+  <si>
+    <t>DEMOtv12</t>
+  </si>
+  <si>
+    <t>With Out Number</t>
+  </si>
+  <si>
+    <t>With Out Captital Letter</t>
+  </si>
+  <si>
+    <t>With Out Smal lLetter</t>
+  </si>
+  <si>
+    <t>With Out Special Char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t>Empty Space</t>
+  </si>
+  <si>
+    <t>Otp</t>
+  </si>
+  <si>
+    <t>567854</t>
+  </si>
+  <si>
+    <t>NumbersOnly</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>My profile</t>
+  </si>
+  <si>
+    <t>prabhacjlh8081@mailinator.com</t>
+  </si>
+  <si>
+    <t>OldPasswordForTesting</t>
+  </si>
+  <si>
+    <t>Valid Mail</t>
   </si>
 </sst>
 </file>
@@ -464,26 +562,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,13 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +668,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,13 +950,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -871,7 +1006,7 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -932,7 +1067,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -957,7 +1092,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1117,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1142,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1192,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1267,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1292,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1182,7 +1317,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1342,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1367,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1392,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1282,7 +1417,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1307,7 +1442,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1366,42 +1501,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -1409,11 +1509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -1428,7 +1528,7 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1580,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1597,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" ht="120" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -2024,7 +2124,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" ht="90" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
@@ -2109,7 +2209,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="30" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>128</v>
       </c>
@@ -2152,11 +2252,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2165,7 +2265,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -2193,7 +2293,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
@@ -2204,7 +2304,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2315,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -2226,7 +2326,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -2237,7 +2337,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>142</v>
       </c>
@@ -2248,7 +2348,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>144</v>
       </c>
@@ -2258,6 +2358,342 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
